--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf11</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H2">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I2">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J2">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N2">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P2">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q2">
-        <v>8.625044525245556</v>
+        <v>16.80679593382133</v>
       </c>
       <c r="R2">
-        <v>77.62540072721001</v>
+        <v>151.261163404392</v>
       </c>
       <c r="S2">
-        <v>0.01512178110301672</v>
+        <v>0.03664344666611176</v>
       </c>
       <c r="T2">
-        <v>0.01512178110301672</v>
+        <v>0.03664344666611174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H3">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I3">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J3">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P3">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q3">
-        <v>21.52206691382289</v>
+        <v>39.24077396233044</v>
       </c>
       <c r="R3">
-        <v>193.698602224406</v>
+        <v>353.166965660974</v>
       </c>
       <c r="S3">
-        <v>0.03773336865713661</v>
+        <v>0.08555570100854229</v>
       </c>
       <c r="T3">
-        <v>0.03773336865713661</v>
+        <v>0.08555570100854226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H4">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I4">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J4">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N4">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O4">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P4">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q4">
-        <v>4.680471909395334</v>
+        <v>12.48749879120233</v>
       </c>
       <c r="R4">
-        <v>42.12424718455801</v>
+        <v>112.387489120821</v>
       </c>
       <c r="S4">
-        <v>0.008205994933189046</v>
+        <v>0.02722618860551116</v>
       </c>
       <c r="T4">
-        <v>0.008205994933189046</v>
+        <v>0.02722618860551115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H5">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I5">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J5">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N5">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P5">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q5">
-        <v>13.43456063405067</v>
+        <v>7.916855242685222</v>
       </c>
       <c r="R5">
-        <v>120.911045706456</v>
+        <v>71.251697184167</v>
       </c>
       <c r="S5">
-        <v>0.02355402160866362</v>
+        <v>0.0172609261153029</v>
       </c>
       <c r="T5">
-        <v>0.02355402160866362</v>
+        <v>0.01726092611530289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H6">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I6">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J6">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N6">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O6">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P6">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q6">
-        <v>3.114979518476111</v>
+        <v>5.90191725463611</v>
       </c>
       <c r="R6">
-        <v>28.034815666285</v>
+        <v>53.11725529172499</v>
       </c>
       <c r="S6">
-        <v>0.005461309594507296</v>
+        <v>0.01286780603510849</v>
       </c>
       <c r="T6">
-        <v>0.005461309594507296</v>
+        <v>0.01286780603510849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H7">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I7">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J7">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N7">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P7">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q7">
-        <v>4.757009625725557</v>
+        <v>6.438820037871221</v>
       </c>
       <c r="R7">
-        <v>42.81308663153001</v>
+        <v>57.949380340841</v>
       </c>
       <c r="S7">
-        <v>0.008340183990310168</v>
+        <v>0.01403840205946859</v>
       </c>
       <c r="T7">
-        <v>0.00834018399031017</v>
+        <v>0.01403840205946859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I8">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J8">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N8">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P8">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q8">
-        <v>30.85362118941667</v>
+        <v>32.97434193020001</v>
       </c>
       <c r="R8">
-        <v>277.6825907047501</v>
+        <v>296.7690773718001</v>
       </c>
       <c r="S8">
-        <v>0.05409383157340561</v>
+        <v>0.0718931523073886</v>
       </c>
       <c r="T8">
-        <v>0.05409383157340562</v>
+        <v>0.07189315230738857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I9">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J9">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P9">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q9">
         <v>76.98901702231667</v>
@@ -1013,10 +1013,10 @@
         <v>692.9011532008501</v>
       </c>
       <c r="S9">
-        <v>0.1349802959671974</v>
+        <v>0.1678572733459847</v>
       </c>
       <c r="T9">
-        <v>0.1349802959671975</v>
+        <v>0.1678572733459846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I10">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J10">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N10">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O10">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P10">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q10">
-        <v>16.74304484545</v>
+        <v>24.500032999475</v>
       </c>
       <c r="R10">
-        <v>150.68740360905</v>
+        <v>220.500296995275</v>
       </c>
       <c r="S10">
-        <v>0.0293545915513612</v>
+        <v>0.05341682353193877</v>
       </c>
       <c r="T10">
-        <v>0.02935459155136121</v>
+        <v>0.05341682353193876</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I11">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J11">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N11">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P11">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q11">
-        <v>48.05828461940001</v>
+        <v>15.53259126915834</v>
       </c>
       <c r="R11">
-        <v>432.5245615746001</v>
+        <v>139.793321422425</v>
       </c>
       <c r="S11">
-        <v>0.08425775172219788</v>
+        <v>0.03386532935837853</v>
       </c>
       <c r="T11">
-        <v>0.08425775172219789</v>
+        <v>0.03386532935837853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I12">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J12">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N12">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O12">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P12">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q12">
-        <v>11.14294515170833</v>
+        <v>11.57935387354167</v>
       </c>
       <c r="R12">
-        <v>100.286506365375</v>
+        <v>104.214184861875</v>
       </c>
       <c r="S12">
-        <v>0.01953626754434147</v>
+        <v>0.02524618242310535</v>
       </c>
       <c r="T12">
-        <v>0.01953626754434147</v>
+        <v>0.02524618242310535</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I13">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J13">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N13">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P13">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q13">
-        <v>17.01683655741667</v>
+        <v>12.63273823230834</v>
       </c>
       <c r="R13">
-        <v>153.15152901675</v>
+        <v>113.694644090775</v>
       </c>
       <c r="S13">
-        <v>0.02983461438765633</v>
+        <v>0.02754285061146042</v>
       </c>
       <c r="T13">
-        <v>0.02983461438765634</v>
+        <v>0.02754285061146041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>1.185082</v>
       </c>
       <c r="I14">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J14">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N14">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P14">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q14">
-        <v>4.306684111317778</v>
+        <v>4.602703637285334</v>
       </c>
       <c r="R14">
-        <v>38.76015700186</v>
+        <v>41.424332735568</v>
       </c>
       <c r="S14">
-        <v>0.007550654865672525</v>
+        <v>0.01003516231867736</v>
       </c>
       <c r="T14">
-        <v>0.007550654865672526</v>
+        <v>0.01003516231867736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>1.185082</v>
       </c>
       <c r="I15">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J15">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P15">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q15">
         <v>10.74646552248844</v>
@@ -1385,10 +1385,10 @@
         <v>96.718189702396</v>
       </c>
       <c r="S15">
-        <v>0.01884114322964146</v>
+        <v>0.02343025629472133</v>
       </c>
       <c r="T15">
-        <v>0.01884114322964146</v>
+        <v>0.02343025629472132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,10 +1417,10 @@
         <v>1.185082</v>
       </c>
       <c r="I16">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J16">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N16">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O16">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P16">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q16">
-        <v>2.337067819958667</v>
+        <v>3.419822334559333</v>
       </c>
       <c r="R16">
-        <v>21.033610379628</v>
+        <v>30.778401011034</v>
       </c>
       <c r="S16">
-        <v>0.004097442963091637</v>
+        <v>0.007456155106389173</v>
       </c>
       <c r="T16">
-        <v>0.004097442963091637</v>
+        <v>0.007456155106389171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>1.185082</v>
       </c>
       <c r="I17">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J17">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N17">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P17">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q17">
-        <v>6.708186683077334</v>
+        <v>2.168107387324222</v>
       </c>
       <c r="R17">
-        <v>60.37368014769599</v>
+        <v>19.512966485918</v>
       </c>
       <c r="S17">
-        <v>0.01176106747307246</v>
+        <v>0.004727071580249403</v>
       </c>
       <c r="T17">
-        <v>0.01176106747307246</v>
+        <v>0.004727071580249402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1541,10 +1541,10 @@
         <v>1.185082</v>
       </c>
       <c r="I18">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J18">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N18">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O18">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P18">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q18">
-        <v>1.555381280645555</v>
+        <v>1.616297128961111</v>
       </c>
       <c r="R18">
-        <v>13.99843152581</v>
+        <v>14.54667416065</v>
       </c>
       <c r="S18">
-        <v>0.002726958126280778</v>
+        <v>0.00352397315198494</v>
       </c>
       <c r="T18">
-        <v>0.002726958126280779</v>
+        <v>0.003523973151984939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>1.185082</v>
       </c>
       <c r="I19">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J19">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N19">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P19">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q19">
-        <v>2.375284870997778</v>
+        <v>1.763333149568222</v>
       </c>
       <c r="R19">
-        <v>21.37756383898</v>
+        <v>15.869998346114</v>
       </c>
       <c r="S19">
-        <v>0.00416444666127832</v>
+        <v>0.003844552196338752</v>
       </c>
       <c r="T19">
-        <v>0.004164446661278321</v>
+        <v>0.003844552196338751</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H20">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I20">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J20">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N20">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P20">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q20">
-        <v>41.13899015638222</v>
+        <v>26.31089606334133</v>
       </c>
       <c r="R20">
-        <v>370.25091140744</v>
+        <v>236.798064570072</v>
       </c>
       <c r="S20">
-        <v>0.07212656144824486</v>
+        <v>0.05736500403949673</v>
       </c>
       <c r="T20">
-        <v>0.07212656144824488</v>
+        <v>0.05736500403949671</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H21">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I21">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J21">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>81.613078</v>
       </c>
       <c r="O21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P21">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q21">
-        <v>102.6540902277315</v>
+        <v>61.4310978269371</v>
       </c>
       <c r="R21">
-        <v>923.886812049584</v>
+        <v>552.879880442434</v>
       </c>
       <c r="S21">
-        <v>0.1799773528367831</v>
+        <v>0.1339367221287042</v>
       </c>
       <c r="T21">
-        <v>0.1799773528367832</v>
+        <v>0.1339367221287042</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H22">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I22">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J22">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N22">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O22">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P22">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q22">
-        <v>22.32450942650134</v>
+        <v>19.54907312971233</v>
       </c>
       <c r="R22">
-        <v>200.920584838512</v>
+        <v>175.941658167411</v>
       </c>
       <c r="S22">
-        <v>0.03914024371603756</v>
+        <v>0.04262236665579945</v>
       </c>
       <c r="T22">
-        <v>0.03914024371603756</v>
+        <v>0.04262236665579944</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H23">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I23">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J23">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N23">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P23">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q23">
-        <v>64.07900342564267</v>
+        <v>12.39376953578855</v>
       </c>
       <c r="R23">
-        <v>576.711030830784</v>
+        <v>111.543925822097</v>
       </c>
       <c r="S23">
-        <v>0.1123459316952848</v>
+        <v>0.027021832999283</v>
       </c>
       <c r="T23">
-        <v>0.1123459316952848</v>
+        <v>0.02702183299928299</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H24">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I24">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J24">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N24">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O24">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P24">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q24">
-        <v>14.85755944480444</v>
+        <v>9.239401256052776</v>
       </c>
       <c r="R24">
-        <v>133.71803500324</v>
+        <v>83.154611304475</v>
       </c>
       <c r="S24">
-        <v>0.02604888137003501</v>
+        <v>0.02014444088487229</v>
       </c>
       <c r="T24">
-        <v>0.02604888137003501</v>
+        <v>0.02014444088487229</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H25">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I25">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J25">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N25">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P25">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q25">
-        <v>22.68957239510222</v>
+        <v>10.07991799591455</v>
       </c>
       <c r="R25">
-        <v>204.20615155592</v>
+        <v>90.71926196323099</v>
       </c>
       <c r="S25">
-        <v>0.03978028705538982</v>
+        <v>0.02197699900305112</v>
       </c>
       <c r="T25">
-        <v>0.03978028705538983</v>
+        <v>0.02197699900305112</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H26">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I26">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J26">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.90224333333333</v>
+        <v>11.651608</v>
       </c>
       <c r="N26">
-        <v>32.70673</v>
+        <v>34.954824</v>
       </c>
       <c r="O26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236475</v>
       </c>
       <c r="P26">
-        <v>0.1536506229779223</v>
+        <v>0.1892813629236474</v>
       </c>
       <c r="Q26">
-        <v>2.713713728911111</v>
+        <v>3.932242925880001</v>
       </c>
       <c r="R26">
-        <v>24.4234235602</v>
+        <v>35.39018633292</v>
       </c>
       <c r="S26">
-        <v>0.004757793987582547</v>
+        <v>0.008573373205699258</v>
       </c>
       <c r="T26">
-        <v>0.004757793987582548</v>
+        <v>0.008573373205699255</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H27">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I27">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J27">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>81.613078</v>
       </c>
       <c r="O27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="P27">
-        <v>0.3834042803375869</v>
+        <v>0.4419371310876561</v>
       </c>
       <c r="Q27">
-        <v>6.771527762857778</v>
+        <v>9.18106320961</v>
       </c>
       <c r="R27">
-        <v>60.94374986572</v>
+        <v>82.62956888649001</v>
       </c>
       <c r="S27">
-        <v>0.0118721196468282</v>
+        <v>0.02001724786712825</v>
       </c>
       <c r="T27">
-        <v>0.01187211964682821</v>
+        <v>0.02001724786712825</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H28">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I28">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J28">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.916218000000001</v>
+        <v>8.657178999999999</v>
       </c>
       <c r="N28">
-        <v>17.748654</v>
+        <v>25.971537</v>
       </c>
       <c r="O28">
-        <v>0.08338014054353929</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="P28">
-        <v>0.08338014054353927</v>
+        <v>0.1406366091439035</v>
       </c>
       <c r="Q28">
-        <v>1.472625543106667</v>
+        <v>2.921668054815</v>
       </c>
       <c r="R28">
-        <v>13.25362988796</v>
+        <v>26.295012493335</v>
       </c>
       <c r="S28">
-        <v>0.002581867379859831</v>
+        <v>0.006370041497752266</v>
       </c>
       <c r="T28">
-        <v>0.002581867379859832</v>
+        <v>0.006370041497752265</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H29">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I29">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J29">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.981576</v>
+        <v>5.488499666666667</v>
       </c>
       <c r="N29">
-        <v>50.944728</v>
+        <v>16.465499</v>
       </c>
       <c r="O29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="P29">
-        <v>0.2393296179300346</v>
+        <v>0.08916114387925267</v>
       </c>
       <c r="Q29">
-        <v>4.226940687413333</v>
+        <v>1.852286310005</v>
       </c>
       <c r="R29">
-        <v>38.04246618672</v>
+        <v>16.670576790045</v>
       </c>
       <c r="S29">
-        <v>0.007410845430815867</v>
+        <v>0.004038494599345369</v>
       </c>
       <c r="T29">
-        <v>0.007410845430815869</v>
+        <v>0.004038494599345369</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H30">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I30">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J30">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.937401666666666</v>
+        <v>4.091608333333333</v>
       </c>
       <c r="N30">
-        <v>11.812205</v>
+        <v>12.274825</v>
       </c>
       <c r="O30">
-        <v>0.05549171858491902</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="P30">
-        <v>0.05549171858491901</v>
+        <v>0.06646852536431769</v>
       </c>
       <c r="Q30">
-        <v>0.9800717735222221</v>
+        <v>1.380856438375</v>
       </c>
       <c r="R30">
-        <v>8.820645961699999</v>
+        <v>12.427707945375</v>
       </c>
       <c r="S30">
-        <v>0.001718301949754454</v>
+        <v>0.003010647564972645</v>
       </c>
       <c r="T30">
-        <v>0.001718301949754455</v>
+        <v>0.003010647564972645</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H31">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I31">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J31">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.012963333333334</v>
+        <v>4.463825666666667</v>
       </c>
       <c r="N31">
-        <v>18.03889</v>
+        <v>13.391477</v>
       </c>
       <c r="O31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122259</v>
       </c>
       <c r="P31">
-        <v>0.08474361962599786</v>
+        <v>0.07251522760122257</v>
       </c>
       <c r="Q31">
-        <v>1.496706746511111</v>
+        <v>1.506474205115</v>
       </c>
       <c r="R31">
-        <v>13.4703607186</v>
+        <v>13.558267846035</v>
       </c>
       <c r="S31">
-        <v>0.002624087531363207</v>
+        <v>0.003284528913563915</v>
       </c>
       <c r="T31">
-        <v>0.002624087531363208</v>
+        <v>0.003284528913563914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.187816</v>
+      </c>
+      <c r="H32">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J32">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>11.651608</v>
+      </c>
+      <c r="N32">
+        <v>34.954824</v>
+      </c>
+      <c r="O32">
+        <v>0.1892813629236475</v>
+      </c>
+      <c r="P32">
+        <v>0.1892813629236474</v>
+      </c>
+      <c r="Q32">
+        <v>2.188358408128</v>
+      </c>
+      <c r="R32">
+        <v>19.695225673152</v>
+      </c>
+      <c r="S32">
+        <v>0.004771224386273794</v>
+      </c>
+      <c r="T32">
+        <v>0.004771224386273793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.187816</v>
+      </c>
+      <c r="H33">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J33">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N33">
+        <v>81.613078</v>
+      </c>
+      <c r="O33">
+        <v>0.4419371310876561</v>
+      </c>
+      <c r="P33">
+        <v>0.4419371310876561</v>
+      </c>
+      <c r="Q33">
+        <v>5.109413952549333</v>
+      </c>
+      <c r="R33">
+        <v>45.98472557294399</v>
+      </c>
+      <c r="S33">
+        <v>0.0111399304425754</v>
+      </c>
+      <c r="T33">
+        <v>0.0111399304425754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.187816</v>
+      </c>
+      <c r="H34">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J34">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.657178999999999</v>
+      </c>
+      <c r="N34">
+        <v>25.971537</v>
+      </c>
+      <c r="O34">
+        <v>0.1406366091439035</v>
+      </c>
+      <c r="P34">
+        <v>0.1406366091439035</v>
+      </c>
+      <c r="Q34">
+        <v>1.625956731064</v>
+      </c>
+      <c r="R34">
+        <v>14.633610579576</v>
+      </c>
+      <c r="S34">
+        <v>0.003545033746512702</v>
+      </c>
+      <c r="T34">
+        <v>0.003545033746512701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.187816</v>
+      </c>
+      <c r="H35">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J35">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.488499666666667</v>
+      </c>
+      <c r="N35">
+        <v>16.465499</v>
+      </c>
+      <c r="O35">
+        <v>0.08916114387925267</v>
+      </c>
+      <c r="P35">
+        <v>0.08916114387925267</v>
+      </c>
+      <c r="Q35">
+        <v>1.030828053394667</v>
+      </c>
+      <c r="R35">
+        <v>9.277452480552</v>
+      </c>
+      <c r="S35">
+        <v>0.002247489226693482</v>
+      </c>
+      <c r="T35">
+        <v>0.002247489226693481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.187816</v>
+      </c>
+      <c r="H36">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J36">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.091608333333333</v>
+      </c>
+      <c r="N36">
+        <v>12.274825</v>
+      </c>
+      <c r="O36">
+        <v>0.06646852536431769</v>
+      </c>
+      <c r="P36">
+        <v>0.06646852536431769</v>
+      </c>
+      <c r="Q36">
+        <v>0.7684695107333332</v>
+      </c>
+      <c r="R36">
+        <v>6.916225596599999</v>
+      </c>
+      <c r="S36">
+        <v>0.001675475304273974</v>
+      </c>
+      <c r="T36">
+        <v>0.001675475304273974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.187816</v>
+      </c>
+      <c r="H37">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J37">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.463825666666667</v>
+      </c>
+      <c r="N37">
+        <v>13.391477</v>
+      </c>
+      <c r="O37">
+        <v>0.07251522760122259</v>
+      </c>
+      <c r="P37">
+        <v>0.07251522760122257</v>
+      </c>
+      <c r="Q37">
+        <v>0.8383778814106666</v>
+      </c>
+      <c r="R37">
+        <v>7.545400932695999</v>
+      </c>
+      <c r="S37">
+        <v>0.001827894817339794</v>
+      </c>
+      <c r="T37">
+        <v>0.001827894817339793</v>
       </c>
     </row>
   </sheetData>
